--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H2">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I2">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J2">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.30510865382479</v>
+        <v>4.919927666666666</v>
       </c>
       <c r="N2">
-        <v>4.30510865382479</v>
+        <v>14.759783</v>
       </c>
       <c r="O2">
-        <v>0.2716892173176992</v>
+        <v>0.2880104164518184</v>
       </c>
       <c r="P2">
-        <v>0.2716892173176992</v>
+        <v>0.2880104164518183</v>
       </c>
       <c r="Q2">
-        <v>50.66346487809435</v>
+        <v>81.57357329609388</v>
       </c>
       <c r="R2">
-        <v>50.66346487809435</v>
+        <v>734.1621596648449</v>
       </c>
       <c r="S2">
-        <v>0.1515324347228384</v>
+        <v>0.1830047731061813</v>
       </c>
       <c r="T2">
-        <v>0.1515324347228384</v>
+        <v>0.1830047731061812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H3">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I3">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J3">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.55863850486853</v>
+        <v>6.683939</v>
       </c>
       <c r="N3">
-        <v>6.55863850486853</v>
+        <v>20.051817</v>
       </c>
       <c r="O3">
-        <v>0.4139062461232777</v>
+        <v>0.3912748693382315</v>
       </c>
       <c r="P3">
-        <v>0.4139062461232777</v>
+        <v>0.3912748693382315</v>
       </c>
       <c r="Q3">
-        <v>77.18349947899999</v>
+        <v>110.8213016254617</v>
       </c>
       <c r="R3">
-        <v>77.18349947899999</v>
+        <v>997.391714629155</v>
       </c>
       <c r="S3">
-        <v>0.230852817205141</v>
+        <v>0.2486200657863105</v>
       </c>
       <c r="T3">
-        <v>0.230852817205141</v>
+        <v>0.2486200657863105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H4">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I4">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J4">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.9819632317585</v>
+        <v>5.478597666666666</v>
       </c>
       <c r="N4">
-        <v>4.9819632317585</v>
+        <v>16.435793</v>
       </c>
       <c r="O4">
-        <v>0.314404536559023</v>
+        <v>0.3207147142099502</v>
       </c>
       <c r="P4">
-        <v>0.314404536559023</v>
+        <v>0.3207147142099501</v>
       </c>
       <c r="Q4">
-        <v>58.62883832023872</v>
+        <v>90.83645504577723</v>
       </c>
       <c r="R4">
-        <v>58.62883832023872</v>
+        <v>817.5280954119951</v>
       </c>
       <c r="S4">
-        <v>0.1753565540180557</v>
+        <v>0.2037854193916782</v>
       </c>
       <c r="T4">
-        <v>0.1753565540180557</v>
+        <v>0.2037854193916782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.538291985823919</v>
+        <v>8.574149</v>
       </c>
       <c r="H5">
-        <v>8.538291985823919</v>
+        <v>25.722447</v>
       </c>
       <c r="I5">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J5">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.30510865382479</v>
+        <v>4.919927666666666</v>
       </c>
       <c r="N5">
-        <v>4.30510865382479</v>
+        <v>14.759783</v>
       </c>
       <c r="O5">
-        <v>0.2716892173176992</v>
+        <v>0.2880104164518184</v>
       </c>
       <c r="P5">
-        <v>0.2716892173176992</v>
+        <v>0.2880104164518183</v>
       </c>
       <c r="Q5">
-        <v>36.7582747170534</v>
+        <v>42.18419288322233</v>
       </c>
       <c r="R5">
-        <v>36.7582747170534</v>
+        <v>379.6577359490009</v>
       </c>
       <c r="S5">
-        <v>0.1099425567810783</v>
+        <v>0.09463737256231183</v>
       </c>
       <c r="T5">
-        <v>0.1099425567810783</v>
+        <v>0.09463737256231182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.538291985823919</v>
+        <v>8.574149</v>
       </c>
       <c r="H6">
-        <v>8.538291985823919</v>
+        <v>25.722447</v>
       </c>
       <c r="I6">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J6">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.55863850486853</v>
+        <v>6.683939</v>
       </c>
       <c r="N6">
-        <v>6.55863850486853</v>
+        <v>20.051817</v>
       </c>
       <c r="O6">
-        <v>0.4139062461232777</v>
+        <v>0.3912748693382315</v>
       </c>
       <c r="P6">
-        <v>0.4139062461232777</v>
+        <v>0.3912748693382315</v>
       </c>
       <c r="Q6">
-        <v>55.99957058403515</v>
+        <v>57.309088892911</v>
       </c>
       <c r="R6">
-        <v>55.99957058403515</v>
+        <v>515.781800036199</v>
       </c>
       <c r="S6">
-        <v>0.1674925174275105</v>
+        <v>0.1285690498281918</v>
       </c>
       <c r="T6">
-        <v>0.1674925174275105</v>
+        <v>0.1285690498281918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.538291985823919</v>
+        <v>8.574149</v>
       </c>
       <c r="H7">
-        <v>8.538291985823919</v>
+        <v>25.722447</v>
       </c>
       <c r="I7">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J7">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.9819632317585</v>
+        <v>5.478597666666666</v>
       </c>
       <c r="N7">
-        <v>4.9819632317585</v>
+        <v>16.435793</v>
       </c>
       <c r="O7">
-        <v>0.314404536559023</v>
+        <v>0.3207147142099502</v>
       </c>
       <c r="P7">
-        <v>0.314404536559023</v>
+        <v>0.3207147142099501</v>
       </c>
       <c r="Q7">
-        <v>42.53745673539304</v>
+        <v>46.97431270505233</v>
       </c>
       <c r="R7">
-        <v>42.53745673539304</v>
+        <v>422.768814345471</v>
       </c>
       <c r="S7">
-        <v>0.1272278633437587</v>
+        <v>0.1053836811488378</v>
       </c>
       <c r="T7">
-        <v>0.1272278633437587</v>
+        <v>0.1053836811488378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.793250993615465</v>
+        <v>0.9393656666666668</v>
       </c>
       <c r="H8">
-        <v>0.793250993615465</v>
+        <v>2.818097</v>
       </c>
       <c r="I8">
-        <v>0.03759525650161719</v>
+        <v>0.03599963817648871</v>
       </c>
       <c r="J8">
-        <v>0.03759525650161719</v>
+        <v>0.03599963817648871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.30510865382479</v>
+        <v>4.919927666666666</v>
       </c>
       <c r="N8">
-        <v>4.30510865382479</v>
+        <v>14.759783</v>
       </c>
       <c r="O8">
-        <v>0.2716892173176992</v>
+        <v>0.2880104164518184</v>
       </c>
       <c r="P8">
-        <v>0.2716892173176992</v>
+        <v>0.2880104164518183</v>
       </c>
       <c r="Q8">
-        <v>3.415031717269051</v>
+        <v>4.621611132550111</v>
       </c>
       <c r="R8">
-        <v>3.415031717269051</v>
+        <v>41.594500192951</v>
       </c>
       <c r="S8">
-        <v>0.01021422581378252</v>
+        <v>0.01036827078332529</v>
       </c>
       <c r="T8">
-        <v>0.01021422581378252</v>
+        <v>0.01036827078332529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.793250993615465</v>
+        <v>0.9393656666666668</v>
       </c>
       <c r="H9">
-        <v>0.793250993615465</v>
+        <v>2.818097</v>
       </c>
       <c r="I9">
-        <v>0.03759525650161719</v>
+        <v>0.03599963817648871</v>
       </c>
       <c r="J9">
-        <v>0.03759525650161719</v>
+        <v>0.03599963817648871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.55863850486853</v>
+        <v>6.683939</v>
       </c>
       <c r="N9">
-        <v>6.55863850486853</v>
+        <v>20.051817</v>
       </c>
       <c r="O9">
-        <v>0.4139062461232777</v>
+        <v>0.3912748693382315</v>
       </c>
       <c r="P9">
-        <v>0.4139062461232777</v>
+        <v>0.3912748693382315</v>
       </c>
       <c r="Q9">
-        <v>5.20264651075161</v>
+        <v>6.278662814694334</v>
       </c>
       <c r="R9">
-        <v>5.20264651075161</v>
+        <v>56.50796533224901</v>
       </c>
       <c r="S9">
-        <v>0.01556091149062612</v>
+        <v>0.01408575372372923</v>
       </c>
       <c r="T9">
-        <v>0.01556091149062612</v>
+        <v>0.01408575372372923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.793250993615465</v>
+        <v>0.9393656666666668</v>
       </c>
       <c r="H10">
-        <v>0.793250993615465</v>
+        <v>2.818097</v>
       </c>
       <c r="I10">
-        <v>0.03759525650161719</v>
+        <v>0.03599963817648871</v>
       </c>
       <c r="J10">
-        <v>0.03759525650161719</v>
+        <v>0.03599963817648871</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.9819632317585</v>
+        <v>5.478597666666666</v>
       </c>
       <c r="N10">
-        <v>4.9819632317585</v>
+        <v>16.435793</v>
       </c>
       <c r="O10">
-        <v>0.314404536559023</v>
+        <v>0.3207147142099502</v>
       </c>
       <c r="P10">
-        <v>0.314404536559023</v>
+        <v>0.3207147142099501</v>
       </c>
       <c r="Q10">
-        <v>3.951947283748143</v>
+        <v>5.146406549546779</v>
       </c>
       <c r="R10">
-        <v>3.951947283748143</v>
+        <v>46.317658945921</v>
       </c>
       <c r="S10">
-        <v>0.01182011919720855</v>
+        <v>0.01154561366943419</v>
       </c>
       <c r="T10">
-        <v>0.01182011919720855</v>
+        <v>0.01154561366943419</v>
       </c>
     </row>
   </sheetData>
